--- a/Lab1/analysis/Knapsack/double-1.xlsx
+++ b/Lab1/analysis/Knapsack/double-1.xlsx
@@ -1292,11 +1292,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1530179328"/>
-        <c:axId val="-1530185856"/>
+        <c:axId val="-127359120"/>
+        <c:axId val="-127362384"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1530179328"/>
+        <c:axId val="-127359120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1414,12 +1414,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1530185856"/>
+        <c:crossAx val="-127362384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1530185856"/>
+        <c:axId val="-127362384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1532,7 +1532,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1530179328"/>
+        <c:crossAx val="-127359120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
